--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_2_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_2_1.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_12</t>
+          <t>model_2_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999949712480792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990526888195262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999914204753202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999943525885253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999937987831222</v>
       </c>
       <c r="G2" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>4.694119181364759e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.000884273404817239</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.808925017137628e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>9.925521843003143e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001387226086040887</v>
+        <v>6.867223430070386e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003254006221887686</v>
+        <v>0.0002165118083889681</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.002166591604655746</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999597699846339</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.002258827894728851</v>
       </c>
       <c r="P2" t="n">
-        <v>62.04493704329278</v>
+        <v>66.53840014141525</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.64132936552498</v>
+        <v>92.13479246364746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_22</t>
+          <t>model_2_1_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999953674372261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990521389959529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.999991363686898</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999935222201243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999931284680947</v>
       </c>
       <c r="G3" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>4.324294003434707e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0008847866409884785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.834136535248339e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.13849231525329e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001387226086040887</v>
+        <v>7.609529843890618e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003254006221887686</v>
+        <v>0.0002072758052111179</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.002079493689202905</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999629394978085</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.002168022040697642</v>
       </c>
       <c r="P3" t="n">
-        <v>62.04493704329278</v>
+        <v>66.70252333420996</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.64132936552498</v>
+        <v>92.29891565644216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_21</t>
+          <t>model_2_1_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999974222188209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990274244292702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.99999150505831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999939636395967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999935070906081</v>
       </c>
       <c r="G4" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.406245579157898e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009078566041427255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.771373954803751e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.06091130960347e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001387226086040887</v>
+        <v>7.190243525419228e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003254006221887686</v>
+        <v>0.0001254002960113743</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.001551207780781768</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999793777505674</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001617245907452428</v>
       </c>
       <c r="P4" t="n">
-        <v>62.04493704329278</v>
+        <v>67.87488575229017</v>
       </c>
       <c r="Q4" t="n">
-        <v>87.64132936552498</v>
+        <v>93.47127807452237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_20</t>
+          <t>model_2_1_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999973496727085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990235640873143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999922774995991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.999993239361086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999930871809829</v>
       </c>
       <c r="G5" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.473964190752867e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009114600639090786</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.428444589824515e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.188205773817665e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001387226086040887</v>
+        <v>7.655251164000582e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003254006221887686</v>
+        <v>0.000106341623818569</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.001572884036015646</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999787973816678</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001639844965747646</v>
       </c>
       <c r="P5" t="n">
-        <v>62.04493704329278</v>
+        <v>67.81937751665917</v>
       </c>
       <c r="Q5" t="n">
-        <v>87.64132936552498</v>
+        <v>93.41576983889138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_19</t>
+          <t>model_2_1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969139894042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169627041194</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928611224403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915609634354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918722896283</v>
       </c>
       <c r="G6" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.880655430995639e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176221653542925</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.169342165907961e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483189991209127e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000621038999617e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003254006221887686</v>
+        <v>0.0001000127655222276</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.001697249372071069</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753119152333</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769504791630685</v>
       </c>
       <c r="P6" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51498541900409</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.64132936552498</v>
+        <v>93.1113777412363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_18</t>
+          <t>model_2_1_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G7" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P7" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q7" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_17</t>
+          <t>model_2_1_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G8" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P8" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q8" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_16</t>
+          <t>model_2_1_20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G9" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P9" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_15</t>
+          <t>model_2_1_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G10" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P10" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_14</t>
+          <t>model_2_1_18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G11" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P11" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q11" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_13</t>
+          <t>model_2_1_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G12" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P12" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_23</t>
+          <t>model_2_1_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G13" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P13" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_24</t>
+          <t>model_2_1_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G14" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P14" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q14" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_10</t>
+          <t>model_2_1_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G15" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P15" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_9</t>
+          <t>model_2_1_12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G16" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P16" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_8</t>
+          <t>model_2_1_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G17" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P17" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_7</t>
+          <t>model_2_1_11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G18" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P18" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_6</t>
+          <t>model_2_1_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G19" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P19" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_5</t>
+          <t>model_2_1_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G20" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P20" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_4</t>
+          <t>model_2_1_8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G21" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P21" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_11</t>
+          <t>model_2_1_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999524442182193</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991249443029935</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9976979645391716</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998648362570863</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G22" t="n">
-        <v>4.439123483475431e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008168260826497858</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002664642460795474</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001387226086040887</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003254006221887686</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006662674750785477</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9996195537457542</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006946318608564502</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P22" t="n">
-        <v>62.04493704329278</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.64132936552498</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_3</t>
+          <t>model_2_1_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999524441267891</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991249436327034</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9976979599315674</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999932258826895</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998648359972589</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G23" t="n">
-        <v>4.439132018078906e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008168267083361176</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000266464779417016</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>1.098097112863008e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000138722875272823</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000325405878216317</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00666268115557011</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9996195530143126</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006946325286014077</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P23" t="n">
-        <v>62.04493319812141</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q23" t="n">
-        <v>87.64132552035362</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_2</t>
+          <t>model_2_1_5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999524427233467</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991249431324467</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9976978938190922</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999932255526606</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998648320084803</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G24" t="n">
-        <v>4.439263023268305e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000816827175303824</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002664724320405968</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>1.098150611166241e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001387269690761296</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000325417690417765</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006662779467510766</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9996195417867737</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006946427783297579</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P24" t="n">
-        <v>62.04487417610727</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.64126649833948</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_1</t>
+          <t>model_2_1_13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999524421461617</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991249391020814</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9976978769645942</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999932246795628</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998648303685387</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G25" t="n">
-        <v>4.43931690094566e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008168309374728117</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002664743829754047</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>1.098292141950152e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001387286521974532</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003254485196775295</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006662819899221095</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N25" t="n">
-        <v>0.999619537169294</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006946469936269523</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P25" t="n">
-        <v>62.04484990300152</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.64124222523373</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_0</t>
+          <t>model_2_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999524412402214</v>
+        <v>0.9999969141016266</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999124933566761</v>
+        <v>0.9990169585194482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9976978156113173</v>
+        <v>0.9999928596245524</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999932258015777</v>
+        <v>0.9999915617063682</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998648277948384</v>
+        <v>0.9999918725789254</v>
       </c>
       <c r="G26" t="n">
-        <v>4.439401466502405e-05</v>
+        <v>2.88055067624043e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000816836104451469</v>
+        <v>0.0009176260715613002</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002664814847142612</v>
+        <v>3.170007161106067e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>1.098110261239921e-05</v>
+        <v>1.483059418199863e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001387312936633302</v>
+        <v>9.000300671552346e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003254752348155147</v>
+        <v>9.999963621106398e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006662883359704269</v>
+        <v>0.00169721851163615</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9996195299217714</v>
+        <v>0.9999753128130129</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006946536098396847</v>
+        <v>0.001769472617403162</v>
       </c>
       <c r="P26" t="n">
-        <v>62.04481180490977</v>
+        <v>67.51505815013246</v>
       </c>
       <c r="Q26" t="n">
-        <v>87.64120412714198</v>
+        <v>93.11145047236465</v>
       </c>
     </row>
   </sheetData>
